--- a/project.file/3-项目开发文档/20140723客户问题反馈.xlsx
+++ b/project.file/3-项目开发文档/20140723客户问题反馈.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
   <si>
     <t>11. 经纬度的输入需要和百度地图联动，难度太大，后放。</t>
   </si>
@@ -144,14 +144,22 @@
   </si>
   <si>
     <t>16. 某些浏览器显示的时候，参数只有一排，在添加零件明细信息的时候，只能看到一排，尺寸修改为具体的尺寸。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在做</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,74 +256,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -325,14 +265,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -399,7 +339,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -434,7 +373,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -610,14 +548,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D17"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="72.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -625,7 +563,7 @@
     <col min="4" max="4" width="44.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -639,7 +577,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -649,7 +587,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -659,7 +597,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -669,7 +607,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -683,7 +621,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -693,7 +631,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -703,7 +641,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -711,9 +649,11 @@
         <v>7</v>
       </c>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -727,7 +667,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="30">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -741,7 +681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="15">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -751,7 +691,7 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
@@ -765,7 +705,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="15">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -775,7 +715,7 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="30">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -785,7 +725,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
@@ -793,9 +733,11 @@
         <v>7</v>
       </c>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -809,7 +751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="30">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
@@ -817,7 +759,9 @@
         <v>7</v>
       </c>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -827,12 +771,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -840,12 +784,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project.file/3-项目开发文档/20140723客户问题反馈.xlsx
+++ b/project.file/3-项目开发文档/20140723客户问题反馈.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>11. 经纬度的输入需要和百度地图联动，难度太大，后放。</t>
   </si>
@@ -110,40 +110,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10. 客户信息和代理商信息拆分成独立的两个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>延后处理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12. 客户资料管理，上传的资料，前台能够显示到我的空间中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13. 评价信息，录入的是原始的信息，默认新增的记录是10分的，默认给10分，不需要输入，后期需要根据算法，从十分上减。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14. 普通工程修改为托管服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15. 服务器环境配置，写一个配置文档。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置清单：服务器 8核 16G内存，带宽5M，2T硬盘，Debian6.0  64位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16. 某些浏览器显示的时候，参数只有一排，在添加零件明细信息的时候，只能看到一排，尺寸修改为具体的尺寸。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.7.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完毕，下拉列表中只有10分。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1. 添加功能：修改完毕
-2. 用户信息列表显示，增加所属客户列，修改完毕。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10. 客户信息和代理商信息拆分成独立的两个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>延后处理。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12. 客户资料管理，上传的资料，前台能够显示到我的空间中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13. 评价信息，录入的是原始的信息，默认新增的记录是10分的，默认给10分，不需要输入，后期需要根据算法，从十分上减。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14. 普通工程修改为托管服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15. 服务器环境配置，写一个配置文档。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置清单：服务器 8核 16G内存，带宽5M，2T硬盘，Debian6.0  64位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16. 某些浏览器显示的时候，参数只有一排，在添加零件明细信息的时候，只能看到一排，尺寸修改为具体的尺寸。</t>
+2. 用户信息列表显示，增加所属客户列，修改完毕。
+3. 去掉查看详情按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户管理和代理商管理拆分，修改完毕。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,7 +740,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -738,18 +751,22 @@
         <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -762,12 +779,12 @@
         <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>8</v>
@@ -777,17 +794,21 @@
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
@@ -797,7 +818,7 @@
     </row>
     <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>8</v>
@@ -806,12 +827,12 @@
         <v>21</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>7</v>

--- a/project.file/3-项目开发文档/20140723客户问题反馈.xlsx
+++ b/project.file/3-项目开发文档/20140723客户问题反馈.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="37">
   <si>
     <t>11. 经纬度的输入需要和百度地图联动，难度太大，后放。</t>
   </si>
@@ -152,14 +152,26 @@
   </si>
   <si>
     <t>正在做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.7.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完毕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完毕。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,6 +268,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -265,14 +345,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -339,6 +419,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -373,6 +454,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -548,14 +630,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="72.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
@@ -563,7 +645,7 @@
     <col min="4" max="4" width="44.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -577,7 +659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -587,7 +669,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="1:4" ht="15">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -597,7 +679,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -607,7 +689,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -621,7 +703,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
@@ -631,7 +713,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
@@ -641,7 +723,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -653,7 +735,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="30">
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -667,7 +749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30">
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>22</v>
       </c>
@@ -681,17 +763,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="15">
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>0</v>
       </c>
@@ -705,7 +791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>26</v>
       </c>
@@ -715,29 +801,35 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:4" ht="30">
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" ht="15">
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D15" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30">
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
@@ -751,14 +843,16 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30">
+    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="D17" s="3" t="s">
         <v>32</v>
       </c>
@@ -771,12 +865,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -784,12 +878,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
